--- a/Woodworks_Bookshelf_Co.xlsx
+++ b/Woodworks_Bookshelf_Co.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Excels\Excel-Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56CEC18-88A2-483F-905F-F3F47B15C8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA4B7E0-A10C-4039-B3BE-3C93E8021E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,8 +94,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -137,7 +137,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -179,16 +179,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -201,23 +197,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1660,304 +1659,310 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" activeCellId="1" sqref="E17:F23 A17:A23"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" style="3"/>
+    <col min="2" max="3" width="8.88671875" style="1"/>
     <col min="5" max="5" width="11.5546875" customWidth="1"/>
     <col min="6" max="6" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
-    <row r="2" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="2" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>5.5</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>4.3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>30</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <f>B5*B6</f>
         <v>165</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <f>C5*C6</f>
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>16</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="12">
         <v>18.5</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="12">
         <v>18.5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="12">
         <f>B9*B10</f>
         <v>296</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <f>C9*C10</f>
         <v>296</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="2">
         <f>B7+B11</f>
         <v>461</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
         <f>C7+C11</f>
         <v>425</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="9">
         <v>2.4E-2</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="9">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
+      <c r="A18" s="6">
         <v>0</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="7">
         <f>B7</f>
         <v>165</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="7">
         <f>C7</f>
         <v>129</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="7">
         <f>B11</f>
         <v>296</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="7">
         <f>B18+D18</f>
         <v>461</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="7">
         <f>C18+D18</f>
         <v>425</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
+      <c r="A19" s="6">
         <v>1</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="8">
         <f>B18*(1+$B$15)</f>
         <v>168.96</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="8">
         <f>C18*(1+$C$15)</f>
         <v>131.19299999999998</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="8">
         <f>D18*(1+$D$15)</f>
         <v>300.44</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="7">
         <f t="shared" ref="E19:E23" si="0">B19+D19</f>
         <v>469.4</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="7">
         <f t="shared" ref="F19:F23" si="1">C19+D19</f>
         <v>431.63299999999998</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
+      <c r="A20" s="6">
         <v>2</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="8">
         <f>B19*(1+$B$15)</f>
         <v>173.01504</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="8">
         <f t="shared" ref="C20:C23" si="2">C19*(1+$C$15)</f>
         <v>133.42328099999997</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="8">
         <f t="shared" ref="D20:D23" si="3">D19*(1+$D$15)</f>
         <v>304.94659999999999</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="7">
         <f t="shared" si="0"/>
         <v>477.96163999999999</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="7">
         <f t="shared" si="1"/>
         <v>438.36988099999996</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
+      <c r="A21" s="6">
         <v>3</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="8">
         <f t="shared" ref="B21:B23" si="4">B20*(1+$B$15)</f>
         <v>177.16740096000001</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="8">
         <f t="shared" si="2"/>
         <v>135.69147677699996</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="8">
         <f t="shared" si="3"/>
         <v>309.52079899999995</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="7">
         <f t="shared" si="0"/>
         <v>486.68819995999996</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="7">
         <f t="shared" si="1"/>
         <v>445.21227577699995</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
+      <c r="A22" s="6">
         <v>4</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="8">
         <f t="shared" si="4"/>
         <v>181.41941858304003</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="8">
         <f t="shared" si="2"/>
         <v>137.99823188220896</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="8">
         <f t="shared" si="3"/>
         <v>314.16361098499993</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="7">
         <f t="shared" si="0"/>
         <v>495.58302956803993</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="7">
         <f t="shared" si="1"/>
         <v>452.16184286720886</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
+      <c r="A23" s="6">
         <v>5</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="8">
         <f t="shared" si="4"/>
         <v>185.77348462903299</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="8">
         <f t="shared" si="2"/>
         <v>140.34420182420649</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="8">
         <f t="shared" si="3"/>
         <v>318.87606514977489</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="7">
         <f t="shared" si="0"/>
         <v>504.64954977880791</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="7">
         <f t="shared" si="1"/>
         <v>459.22026697398138</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
